--- a/data/exported_toward_bb.xlsx
+++ b/data/exported_toward_bb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isanchezjimene\Documents\TraderesCode\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB77715-8669-496A-8A93-1A7BC39A45B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5F2F09-FB33-4827-B357-BD4145705B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="660" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grid" sheetId="1" r:id="rId1"/>
@@ -655,7 +655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -666,6 +666,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8674,8 +8677,8 @@
   </sheetPr>
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B24"/>
+    <sheetView topLeftCell="A54" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9868,10 +9871,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:D635"/>
+  <dimension ref="A1:D646"/>
   <sheetViews>
-    <sheetView topLeftCell="A622" workbookViewId="0">
-      <selection activeCell="H608" sqref="H608"/>
+    <sheetView tabSelected="1" topLeftCell="A614" workbookViewId="0">
+      <selection activeCell="K639" sqref="K639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18770,6 +18773,39 @@
       <c r="D635">
         <v>42.191125290000002</v>
       </c>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A636" s="6"/>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A637" s="6"/>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A638" s="6"/>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A639" s="6"/>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A640" s="6"/>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A641" s="6"/>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A642" s="6"/>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A643" s="6"/>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A644" s="6"/>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A645" s="6"/>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A646" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/exported_toward_bb.xlsx
+++ b/data/exported_toward_bb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isanchezjimene\Documents\TraderesCode\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5F2F09-FB33-4827-B357-BD4145705B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA09C23-4CD0-4CD2-99E8-D43001F23475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="660" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="660" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grid" sheetId="1" r:id="rId1"/>
@@ -69,6 +69,24 @@
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     copied to node</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={0AFB1963-8531-4E73-A1BC-A5674C7DEE7C}</author>
+  </authors>
+  <commentList>
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{0AFB1963-8531-4E73-A1BC-A5674C7DEE7C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    no idea for which nodes are these</t>
       </text>
     </comment>
   </commentList>
@@ -595,7 +613,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -615,6 +633,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -991,6 +1015,14 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H5" dT="2022-04-13T10:51:22.89" personId="{08DB7B5E-EE37-4573-9C2A-FF3EA7A96B25}" id="{0AFB1963-8531-4E73-A1BC-A5674C7DEE7C}">
+    <text>no idea for which nodes are these</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A19"/>
@@ -9867,14 +9899,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:D646"/>
+  <dimension ref="A1:H646"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A614" workbookViewId="0">
-      <selection activeCell="K639" sqref="K639"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9884,7 +9916,7 @@
     <col min="3" max="3" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -9897,8 +9929,20 @@
       <c r="D1">
         <v>9.4393000000000005E-2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1">
+        <v>93.904775180000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -9911,8 +9955,20 @@
       <c r="D2">
         <v>9.4393000000000005E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2">
+        <v>97.012060739999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -9925,8 +9981,20 @@
       <c r="D3">
         <v>0.309</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3">
+        <v>796.91070000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -9939,8 +10007,20 @@
       <c r="D4">
         <v>0.30499999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4">
+        <v>10.29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -9953,8 +10033,20 @@
       <c r="D5">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5">
+        <v>42.191125290000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -9968,7 +10060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -9982,7 +10074,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -9996,7 +10088,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -10010,7 +10102,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -10024,7 +10116,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -10038,7 +10130,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -10052,7 +10144,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -10066,7 +10158,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -10080,7 +10172,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -10094,7 +10186,7 @@
         <v>9.4393000000000005E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -18704,76 +18796,6 @@
         <v>30</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A631" t="s">
-        <v>67</v>
-      </c>
-      <c r="B631" t="s">
-        <v>118</v>
-      </c>
-      <c r="C631" t="s">
-        <v>83</v>
-      </c>
-      <c r="D631">
-        <v>93.904775180000001</v>
-      </c>
-    </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A632" t="s">
-        <v>68</v>
-      </c>
-      <c r="B632" t="s">
-        <v>118</v>
-      </c>
-      <c r="C632" t="s">
-        <v>83</v>
-      </c>
-      <c r="D632">
-        <v>97.012060739999995</v>
-      </c>
-    </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A633" t="s">
-        <v>69</v>
-      </c>
-      <c r="B633" t="s">
-        <v>118</v>
-      </c>
-      <c r="C633" t="s">
-        <v>83</v>
-      </c>
-      <c r="D633">
-        <v>796.91070000000002</v>
-      </c>
-    </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A634" t="s">
-        <v>73</v>
-      </c>
-      <c r="B634" t="s">
-        <v>118</v>
-      </c>
-      <c r="C634" t="s">
-        <v>83</v>
-      </c>
-      <c r="D634">
-        <v>10.29</v>
-      </c>
-    </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A635" t="s">
-        <v>74</v>
-      </c>
-      <c r="B635" t="s">
-        <v>118</v>
-      </c>
-      <c r="C635" t="s">
-        <v>83</v>
-      </c>
-      <c r="D635">
-        <v>42.191125290000002</v>
-      </c>
-    </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A636" s="6"/>
     </row>
@@ -18809,6 +18831,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
